--- a/data/policy_upd.xlsx
+++ b/data/policy_upd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\master_thesis\master_thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073C877-39BA-4AD7-86C9-D7B8CDCEFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA9CCD-5DD0-404C-8917-29817BA47AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27DD289D-9315-4BC9-BA03-3771593F0D63}"/>
+    <workbookView xWindow="1140" yWindow="1060" windowWidth="13300" windowHeight="9140" xr2:uid="{27DD289D-9315-4BC9-BA03-3771593F0D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Country</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Romania</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B2CC36-3016-4168-A263-430C4A316C5C}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,19 +633,19 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -662,19 +665,19 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -871,7 +874,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11">
@@ -887,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -918,19 +921,19 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -982,24 +985,24 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -1078,19 +1081,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1174,19 +1177,19 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1206,19 +1209,19 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1287,7 +1290,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
@@ -1303,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1398,56 +1401,56 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29">
@@ -1462,24 +1465,24 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B30">
@@ -1494,19 +1497,51 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
         <v>0</v>
       </c>
     </row>
